--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1374173.952149416</v>
+        <v>1368885.836654644</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9650459.713067893</v>
+        <v>9648689.774896637</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>283.0103879733716</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>215.4273112392658</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -753,10 +753,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>31.0247775538269</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>77.35970163560918</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.4160737001635</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>155.6053465906475</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.9964700027341</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>181.4261959358982</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142.6217034654869</v>
+        <v>4.756515304264195</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>194.9632162960285</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>69.74659619687314</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>237.74112346794</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>409.5439480457046</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.2276889092491</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>278.5304850060984</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>126.6129753079387</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>40.78297506860832</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>20.44424934430026</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>49.798457471104</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>57.98257224873297</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40.78297506860856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58074163683659</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1853,7 +1853,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697363</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412925</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135883</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059316</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383891</v>
+        <v>24.17382596574998</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828922</v>
+        <v>52.06849973565011</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431754</v>
+        <v>70.57601873167843</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459995</v>
+        <v>55.72314698196084</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643968</v>
+        <v>41.29686219380056</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931879</v>
+        <v>41.22330424667967</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908606</v>
+        <v>42.97275566644694</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147819</v>
+        <v>53.79159358883908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805023</v>
+        <v>41.14384575541112</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922216</v>
+        <v>18.98356133658305</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367808</v>
+        <v>9.882059701038969</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792054</v>
+        <v>88.00800320656629</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059199</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T44" t="n">
         <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
         <v>208.3257718879324</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.030240172351</v>
+        <v>1215.809282799979</v>
       </c>
       <c r="C2" t="n">
-        <v>1525.854738675281</v>
+        <v>1215.809282799979</v>
       </c>
       <c r="D2" t="n">
-        <v>1140.413609891949</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>1140.413609891949</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>723.5191714219267</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475504</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222169</v>
+        <v>936.6744981739582</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354912</v>
+        <v>936.6744981739582</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572953</v>
+        <v>1450.277176783647</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465282</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737752</v>
+        <v>1813.668821661862</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172351</v>
+        <v>1557.916092096461</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.030240172351</v>
+        <v>1215.809282799979</v>
       </c>
       <c r="W2" t="n">
-        <v>1919.030240172351</v>
+        <v>1215.809282799979</v>
       </c>
       <c r="X2" t="n">
-        <v>1919.030240172351</v>
+        <v>1215.809282799979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1919.030240172351</v>
+        <v>1215.809282799979</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.813417902147</v>
+        <v>655.0354850191687</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622392</v>
+        <v>504.3812545792609</v>
       </c>
       <c r="D3" t="n">
-        <v>505.1591874622392</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="E3" t="n">
-        <v>368.7126965731269</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F3" t="n">
-        <v>244.2808904562587</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>124.2210725281231</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585116</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466464</v>
+        <v>1552.274689874029</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466464</v>
+        <v>2065.877368483717</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>2065.877368483717</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734594</v>
+        <v>1838.173504851615</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1628.110361530257</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1405.570359901324</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917589</v>
+        <v>1175.453114034611</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267601</v>
+        <v>986.1460363846229</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431083</v>
+        <v>806.8318194601301</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>489.4748316855017</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C4" t="n">
-        <v>489.4748316855017</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D4" t="n">
-        <v>489.4748316855017</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E4" t="n">
-        <v>333.9160195447042</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576772</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576772</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576772</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="W4" t="n">
-        <v>661.6122798674851</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="X4" t="n">
-        <v>661.6122798674851</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y4" t="n">
-        <v>661.6122798674851</v>
+        <v>41.50324675633848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>469.51244933637</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="C5" t="n">
-        <v>469.51244933637</v>
+        <v>852.9611654812858</v>
       </c>
       <c r="D5" t="n">
-        <v>469.51244933637</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634781</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475504</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>365.4243013579108</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>858.7445930764396</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764396</v>
+        <v>773.3325661833849</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713902</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.59547760623</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678803</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678803</v>
+        <v>1685.148180317391</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.269414678803</v>
+        <v>1429.39545075199</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.269414678803</v>
+        <v>1429.39545075199</v>
       </c>
       <c r="W5" t="n">
-        <v>1637.27037964709</v>
+        <v>1429.39545075199</v>
       </c>
       <c r="X5" t="n">
-        <v>1247.817774580147</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="Y5" t="n">
-        <v>851.3270655007479</v>
+        <v>1246.136666978355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>703.184559508882</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653893</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875483</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466464</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413235</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917589</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267601</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y6" t="n">
-        <v>986.923969267601</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.4327417094506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C7" t="n">
-        <v>229.4327417094506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D7" t="n">
-        <v>229.4327417094506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E7" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F7" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>585.3226407371185</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>299.8838489790194</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V7" t="n">
-        <v>299.8838489790194</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="W7" t="n">
-        <v>299.8838489790194</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4327417094506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4327417094506</v>
+        <v>41.50324675633848</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>855.5572059581905</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>855.5572059581905</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>470.1160771748582</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>470.1160771748582</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.542660748986</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="X8" t="n">
-        <v>1652.542660748986</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="Y8" t="n">
-        <v>1256.051951669587</v>
+        <v>1175.892476341718</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406338</v>
+        <v>1589.282783693955</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055462</v>
+        <v>1267.90355734308</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>986.5596330944957</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914309</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2883.347211042578</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2883.347211042578</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2613.03667689229</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2613.03667689229</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X11" t="n">
-        <v>2295.380346971541</v>
+        <v>2242.675688192363</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.380346971541</v>
+        <v>1917.981254259159</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460.228588399884</v>
+        <v>103.3140520158411</v>
       </c>
       <c r="C13" t="n">
-        <v>460.228588399884</v>
+        <v>103.3140520158411</v>
       </c>
       <c r="D13" t="n">
-        <v>376.3917504485927</v>
+        <v>103.3140520158411</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>103.3140520158411</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118223</v>
@@ -5227,22 +5227,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922022</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1292.957362008587</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.774291975605</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W13" t="n">
-        <v>887.240165052977</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X13" t="n">
-        <v>724.9561179821541</v>
+        <v>368.0415815981112</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.6403319449914</v>
+        <v>216.7257955609485</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1769.879336723576</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C14" t="n">
-        <v>1448.5001103727</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>711.7339944900341</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.928571142733</v>
+        <v>2317.807308897205</v>
       </c>
       <c r="X14" t="n">
-        <v>2423.272241221984</v>
+        <v>2000.150978976455</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.577807288779</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>596.176270190801</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380.6485722465203</v>
+        <v>103.3140520158414</v>
       </c>
       <c r="C16" t="n">
-        <v>282.2397294587034</v>
+        <v>103.3140520158414</v>
       </c>
       <c r="D16" t="n">
-        <v>282.2397294587034</v>
+        <v>103.3140520158414</v>
       </c>
       <c r="E16" t="n">
-        <v>282.2397294587034</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>282.2397294587034</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>185.7819507043429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>102.0996748120308</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5455,7 +5455,7 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
@@ -5464,22 +5464,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310117</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>905.7825322771346</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>694.2484053545061</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="X16" t="n">
-        <v>531.9643582836831</v>
+        <v>368.0415815981112</v>
       </c>
       <c r="Y16" t="n">
-        <v>380.6485722465203</v>
+        <v>216.7257955609484</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924229</v>
@@ -5543,13 +5543,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5692,7 +5692,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
         <v>1098.202162476281</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599515</v>
@@ -5735,34 +5735,34 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803421</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,10 +5832,10 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221563</v>
       </c>
       <c r="M21" t="n">
         <v>1223.947919817482</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031230035</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222422</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296042</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
         <v>1098.202162476281</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614363</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>814.2514907939589</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1470.029462004518</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904113</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662631</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463681</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057103</v>
+        <v>601.3807258108112</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835522</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786173</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150705</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043034</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901626</v>
+        <v>3118.495954132885</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3303.341514273834</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.409263884299</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965143</v>
+        <v>365.6713676929727</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918679</v>
+        <v>309.385360640487</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123138</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.73045008374216</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076169</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>245.409263406756</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805557</v>
+        <v>395.396194563632</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188198</v>
+        <v>693.3398934768788</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377099</v>
+        <v>876.529527508088</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250203</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395539</v>
+        <v>835.7257283273696</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300096</v>
+        <v>666.3144371400722</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124435</v>
+        <v>546.1532258045804</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584512</v>
+        <v>436.9602755027489</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7020,16 +7020,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7105,40 +7105,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797591</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498593</v>
@@ -7160,13 +7160,13 @@
         <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7178,13 +7178,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,28 +7193,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443166</v>
@@ -7266,10 +7266,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291065</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390484</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128481</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511122</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879441</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296521</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106231</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7415,13 +7415,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133168</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445259</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.282790386234</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7798,7 +7798,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,25 +7807,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>548.742232842946</v>
       </c>
       <c r="M2" t="n">
-        <v>423.8876955505296</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837499</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211852</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>100.3669100581427</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>468.2388496066674</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>380.2272642146529</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999924</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886046</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>178.0263139717803</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>505.6324667106232</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,13 +8541,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>476.2460796729735</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>624.8237719316268</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N18" t="n">
-        <v>301.8549375253374</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>663.2434089132773</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>85.37211285416652</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,19 +9717,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>613.9497439416874</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114043</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>424.3297954396439</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,19 +10668,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10826,7 +10826,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987036</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10914,13 +10914,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>31.9779200946686</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>23.57430871350681</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.89138797581651</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>191.0618421014858</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>260.709947629663</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>209.6248565600519</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>42.141936556049</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>21.10442707772432</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-5.542233338928781e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>844103.9061148898</v>
+        <v>843201.5846942492</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>844103.9061148898</v>
+        <v>843201.5846942492</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>850207.6803965756</v>
+        <v>850207.6803965754</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>850207.6803965755</v>
+        <v>850207.6803965756</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>450830.4452333919</v>
+      </c>
+      <c r="C2" t="n">
         <v>450830.4452333921</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>450830.4452333918</v>
-      </c>
-      <c r="D2" t="n">
-        <v>450830.4452333919</v>
       </c>
       <c r="E2" t="n">
         <v>398397.5585610018</v>
       </c>
       <c r="F2" t="n">
-        <v>398397.5585610019</v>
+        <v>398397.558561002</v>
       </c>
       <c r="G2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333921</v>
       </c>
       <c r="H2" t="n">
         <v>450830.4452333922</v>
       </c>
       <c r="I2" t="n">
-        <v>450830.4452333923</v>
+        <v>450830.4452333924</v>
       </c>
       <c r="J2" t="n">
         <v>450830.4452333916</v>
       </c>
       <c r="K2" t="n">
-        <v>450830.4452333914</v>
+        <v>450830.4452333916</v>
       </c>
       <c r="L2" t="n">
+        <v>450830.4452333923</v>
+      </c>
+      <c r="M2" t="n">
+        <v>450830.4452333923</v>
+      </c>
+      <c r="N2" t="n">
+        <v>450830.4452333923</v>
+      </c>
+      <c r="O2" t="n">
         <v>450830.4452333922</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>450830.4452333922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>450830.4452333921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>450830.4452333924</v>
-      </c>
-      <c r="P2" t="n">
-        <v>450830.4452333921</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062165</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668188</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.85189012250345e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972853</v>
+        <v>62456.2417753966</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277128</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2125.987882427435</v>
+        <v>6176.659889842034</v>
       </c>
       <c r="C6" t="n">
-        <v>184330.9361742834</v>
+        <v>180035.3169238973</v>
       </c>
       <c r="D6" t="n">
-        <v>177738.8748345612</v>
+        <v>170002.5856111694</v>
       </c>
       <c r="E6" t="n">
-        <v>120291.6028869089</v>
+        <v>120081.8713402194</v>
       </c>
       <c r="F6" t="n">
-        <v>232414.1643609536</v>
+        <v>232204.4328142641</v>
       </c>
       <c r="G6" t="n">
-        <v>184679.0593894008</v>
+        <v>184679.0593894006</v>
       </c>
       <c r="H6" t="n">
+        <v>232104.3849260824</v>
+      </c>
+      <c r="I6" t="n">
+        <v>232104.3849260829</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25578.75248336948</v>
+      </c>
+      <c r="K6" t="n">
+        <v>225864.616523299</v>
+      </c>
+      <c r="L6" t="n">
+        <v>166633.1903782064</v>
+      </c>
+      <c r="M6" t="n">
+        <v>188851.8604552714</v>
+      </c>
+      <c r="N6" t="n">
         <v>232104.3849260826</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>204336.6908833113</v>
+      </c>
+      <c r="P6" t="n">
         <v>232104.3849260826</v>
-      </c>
-      <c r="J6" t="n">
-        <v>19062.46732879625</v>
-      </c>
-      <c r="K6" t="n">
-        <v>225864.6165232988</v>
-      </c>
-      <c r="L6" t="n">
-        <v>170682.0275886786</v>
-      </c>
-      <c r="M6" t="n">
-        <v>189903.5554664596</v>
-      </c>
-      <c r="N6" t="n">
-        <v>232104.3849260824</v>
-      </c>
-      <c r="O6" t="n">
-        <v>204336.6908833114</v>
-      </c>
-      <c r="P6" t="n">
-        <v>232104.3849260825</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155843</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434438</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
+        <v>776.489096301444</v>
+      </c>
+      <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="N4" t="n">
-        <v>776.4890963014442</v>
-      </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660662</v>
+        <v>78.07030221924575</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551366</v>
+        <v>17.5800495428746</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434438</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,19 +27379,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98.57632952212731</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>193.603816717611</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>56.38966468157817</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>97.85427204747143</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.93986480422475</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,10 +27543,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>124.8917514574866</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.4933282515488</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>204.1318830803755</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.656667631064778</v>
+        <v>145.5218557922875</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>161.9929227979736</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>158.7486747863429</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>3.181546039617388</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>123.269409138885</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529923</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155843</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668919</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2979821082787</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155843</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634528595</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901124</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.272237659013</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566887</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000707</v>
+        <v>81.10808140893505</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045697</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>106.8683420224752</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634528921</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155855</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>35.7104901066896</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30645,10 +30645,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,28 +30879,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>395.4940631124543</v>
       </c>
       <c r="M2" t="n">
-        <v>274.1626439528023</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434438</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701853</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>9.378756902228677</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>325.1804464274301</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.5022126169256</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200687317</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434438</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>90.94294915246567</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>356.0686292865269</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,13 +35261,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>539.4516590774601</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N18" t="n">
-        <v>216.4828246711707</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644682406</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>570.8562868639656</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634530121</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.7547461184312</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36437,19 +36437,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272222</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>521.2621850527985</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907926</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>424.9260266620924</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167604</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184961</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066584</v>
+        <v>432.8126189155228</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273744</v>
+        <v>75.16693519537655</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>338.9576825854773</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055077</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272669</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>271.216591559554</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716078</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37634,13 +37634,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434252</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>220.7505244816484</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37941,10 +37941,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>316.4712935610703</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
